--- a/csec/database/Physics data.xlsx
+++ b/csec/database/Physics data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -19,36 +19,72 @@
     <t>id</t>
   </si>
   <si>
-    <t>CSEC June 2019 P2.pdf</t>
+    <t>CSEC Physics June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1oICOOZqkMSYlTYVaViV-TZ2qpiGHmRUs</t>
+  </si>
+  <si>
+    <t>CSEC Physics January 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1FyAWo5B_7DR5D1oGCFtiVKuoKuUGGnyJ</t>
+  </si>
+  <si>
+    <t>CSEC Physics January 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>16G6cIKxErHOY6t0h05UlaLwTlL5g9LEs</t>
+  </si>
+  <si>
+    <t>CSEC Physics January 2020 P2.pdf</t>
+  </si>
+  <si>
+    <t>10SJw8B3UTunCHQtQyViLpwMgqLfQf2u4</t>
+  </si>
+  <si>
+    <t>CSEC Physics January 2016 P2.pdf</t>
+  </si>
+  <si>
+    <t>1WqJiM9Av0B6STw_UT1KAbD7b3tjqkkvT</t>
+  </si>
+  <si>
+    <t>CSEC Physics January 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1zBfgG642O268ZDviDnvvS9a0HsSUEDgW</t>
+  </si>
+  <si>
+    <t>CSEC Physics June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1sWpbOSKu4Kf6NFePJrISkvyvh3hqFhMo</t>
+  </si>
+  <si>
+    <t>CSEC Physics June 2019 P2.pdf</t>
   </si>
   <si>
     <t>1kb-4YWBicpISNhpMGf3o1kspcpZCd2jH</t>
   </si>
   <si>
+    <t>CSEC Physics June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>17eT_TtsAQ9hi7VNKrEFbCB8nqfgTeF8R</t>
+  </si>
+  <si>
+    <t>CSEC Physics June 2009 - 1990 P2.pdf</t>
+  </si>
+  <si>
+    <t>15grnKQTPNghtFrcBAdkr2w4p4I11iu6I</t>
+  </si>
+  <si>
     <t>Physics Formulas List.pdf</t>
   </si>
   <si>
     <t>12ngtevJ07dp24V8-mX9G4W9jc-7FGqhu</t>
   </si>
   <si>
-    <t>CSEC June 2018 P2.pdf</t>
-  </si>
-  <si>
-    <t>17eT_TtsAQ9hi7VNKrEFbCB8nqfgTeF8R</t>
-  </si>
-  <si>
-    <t>CSEC 2009-1990.pdf</t>
-  </si>
-  <si>
-    <t>15grnKQTPNghtFrcBAdkr2w4p4I11iu6I</t>
-  </si>
-  <si>
-    <t>20170917_112146.jpg</t>
-  </si>
-  <si>
-    <t>1so9evo5AGWRhpsS6k9fu5NJOhZs9A4Gv</t>
-  </si>
-  <si>
     <t>CSEC Physics June 2017 P2.pdf</t>
   </si>
   <si>
@@ -143,12 +179,6 @@
   </si>
   <si>
     <t>1-82NkZzfzzkm3xK-KNLWSxxJpX8OtEHQ</t>
-  </si>
-  <si>
-    <t>CSEC Physics January 2016 P02.pdf</t>
-  </si>
-  <si>
-    <t>1WqJiM9Av0B6STw_UT1KAbD7b3tjqkkvT</t>
   </si>
   <si>
     <t>CSEC Physics June 2013 P032.pdf</t>
@@ -981,6 +1011,46 @@
         <v>101</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
